--- a/02/sprawozdanie/dane/b/Book1.xlsx
+++ b/02/sprawozdanie/dane/b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -124,9 +124,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>zbiór treningowy</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -399,9 +396,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>zbiór walidacyjny</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln>
               <a:noFill/>
@@ -679,11 +673,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556417024"/>
-        <c:axId val="556421056"/>
+        <c:axId val="553993344"/>
+        <c:axId val="553993920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556417024"/>
+        <c:axId val="553993344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -714,12 +708,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="556421056"/>
+        <c:crossAx val="553993920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556421056"/>
+        <c:axId val="553993920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,7 +745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="556417024"/>
+        <c:crossAx val="553993344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -815,9 +809,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>zbiór treningowy</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -1090,9 +1081,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>zbiór walidacyjny</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln>
               <a:noFill/>
@@ -1370,11 +1358,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="74930944"/>
-        <c:axId val="74723840"/>
+        <c:axId val="553996224"/>
+        <c:axId val="553996800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74930944"/>
+        <c:axId val="553996224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,12 +1393,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74723840"/>
+        <c:crossAx val="553996800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74723840"/>
+        <c:axId val="553996800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,7 +1430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74930944"/>
+        <c:crossAx val="553996224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1506,9 +1494,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>zbiór treningowy</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -1781,9 +1766,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>zbiór walidacyjny</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln>
               <a:noFill/>
@@ -2061,11 +2043,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="47900928"/>
-        <c:axId val="47904960"/>
+        <c:axId val="553999104"/>
+        <c:axId val="553999680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47900928"/>
+        <c:axId val="553999104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,12 +2078,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47904960"/>
+        <c:crossAx val="553999680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47904960"/>
+        <c:axId val="553999680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2133,7 +2115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47900928"/>
+        <c:crossAx val="553999104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2197,9 +2179,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>zbiór treningowy</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -2472,9 +2451,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>zbiór walidacyjny</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln>
               <a:noFill/>
@@ -2752,11 +2728,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556423360"/>
-        <c:axId val="557143680"/>
+        <c:axId val="554763968"/>
+        <c:axId val="554764544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556423360"/>
+        <c:axId val="554763968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2787,12 +2763,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="557143680"/>
+        <c:crossAx val="554764544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="557143680"/>
+        <c:axId val="554764544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2824,7 +2800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="556423360"/>
+        <c:crossAx val="554763968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2888,9 +2864,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>zbiór treningowy</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -3036,124 +3009,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.204268168084631</c:v>
+                  <c:v>0.22821911607227399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8398917242088602E-2</c:v>
+                  <c:v>0.13580770082973401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0570906014976804E-2</c:v>
+                  <c:v>0.12944822926581301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5450693239853506E-2</c:v>
+                  <c:v>0.11094832287359099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6902487758656E-2</c:v>
+                  <c:v>9.2250235501406305E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.4846549700710899E-2</c:v>
+                  <c:v>7.56888376725635E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4035430455506405E-2</c:v>
+                  <c:v>7.3799475296737499E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3460261990466203E-2</c:v>
+                  <c:v>7.2643352280026399E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3250044012168803E-2</c:v>
+                  <c:v>7.1728497866598795E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.4119723248040998E-2</c:v>
+                  <c:v>7.0605575445656002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2230311553164306E-2</c:v>
+                  <c:v>7.0112174351225395E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2386814725507296E-2</c:v>
+                  <c:v>6.9622543275471599E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.1094399500478198E-2</c:v>
+                  <c:v>6.9388334617776701E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.2316458913577695E-2</c:v>
+                  <c:v>6.7306881432754206E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.2424800339588405E-2</c:v>
+                  <c:v>6.7974744994446903E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.2237571979697097E-2</c:v>
+                  <c:v>6.8190505407139196E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.3037967308458499E-2</c:v>
+                  <c:v>6.7094416431362505E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.0315622962006103E-2</c:v>
+                  <c:v>6.8054299789963094E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.2353848233221699E-2</c:v>
+                  <c:v>6.7846863091447801E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.9628098698217598E-2</c:v>
+                  <c:v>6.7533332979366298E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.10926535115208399</c:v>
+                  <c:v>6.7756185335516597E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.109883327154842</c:v>
+                  <c:v>6.7857339612714201E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.111923906116577</c:v>
+                  <c:v>6.7723888630226894E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.112403097098818</c:v>
+                  <c:v>6.7175353181042896E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.112855355229341</c:v>
+                  <c:v>6.6615042651147205E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.112636840203187</c:v>
+                  <c:v>6.7627098884120995E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.112207362921991</c:v>
+                  <c:v>6.66904258326E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.11203038163111401</c:v>
+                  <c:v>7.20675310280562E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.109966542649665</c:v>
+                  <c:v>7.1659716945553495E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.10964140822155399</c:v>
+                  <c:v>7.5576235793360994E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.109433522823025</c:v>
+                  <c:v>7.5236276742591895E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.10921466481103299</c:v>
+                  <c:v>7.5713243804519395E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.104210518737285</c:v>
+                  <c:v>7.5742945785873803E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.106392217480145</c:v>
+                  <c:v>7.4944605352852106E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.103776609488029</c:v>
+                  <c:v>8.31043416838569E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.101481995001252</c:v>
+                  <c:v>8.3470719972756596E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.108291488250393</c:v>
+                  <c:v>8.2289507768651293E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.101202511554754</c:v>
+                  <c:v>8.7480910251326302E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.103676600063298</c:v>
+                  <c:v>9.1166981958936494E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.8666755273026194E-2</c:v>
+                  <c:v>8.98026978979901E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3163,9 +3136,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>zbiór walidacyjny</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln>
               <a:noFill/>
@@ -3311,124 +3281,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>0.17384338214652101</c:v>
+                  <c:v>0.22458928136366901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5337337559677604E-2</c:v>
+                  <c:v>0.16149330886008501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6622985194712093E-2</c:v>
+                  <c:v>0.161130534752396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5671468695665803E-2</c:v>
+                  <c:v>0.14736443915547101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4429389555196493E-2</c:v>
+                  <c:v>0.11965813797991599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0876423058894795E-2</c:v>
+                  <c:v>7.8205579819075693E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0041610115372003E-2</c:v>
+                  <c:v>7.2743547711966797E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.1654604258848296E-2</c:v>
+                  <c:v>7.3256712305289698E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3007520959407999E-2</c:v>
+                  <c:v>7.2956786397808199E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0890546750463796E-2</c:v>
+                  <c:v>7.1010765120954902E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.3387961301878394E-2</c:v>
+                  <c:v>7.0232752872374599E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.4535717676728003E-2</c:v>
+                  <c:v>6.9834347290627902E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.2429324042045393E-2</c:v>
+                  <c:v>6.8497088288718699E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.9973500673042999E-2</c:v>
+                  <c:v>7.4252671510473794E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.0833176451558394E-2</c:v>
+                  <c:v>6.4461315653746298E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.5524290551631396E-2</c:v>
+                  <c:v>6.50836315260679E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.0873782899296795E-2</c:v>
+                  <c:v>6.3378659696771505E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.14222635844329E-2</c:v>
+                  <c:v>6.4864028286919506E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.3825203539429701E-2</c:v>
+                  <c:v>6.8502991653211706E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12742717012336899</c:v>
+                  <c:v>6.4087757349053906E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.12086641472175801</c:v>
+                  <c:v>6.5991067256536695E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.121225090932901</c:v>
+                  <c:v>6.4652800343934794E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.11928447239142601</c:v>
+                  <c:v>6.5253340119807796E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.11939776157429299</c:v>
+                  <c:v>6.8848739225259803E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.11770678244408</c:v>
+                  <c:v>7.0780946328651895E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.118649004952085</c:v>
+                  <c:v>6.3828133140722804E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.11772675666408799</c:v>
+                  <c:v>6.1419421442993102E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.119044460239715</c:v>
+                  <c:v>6.7974605800546997E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.11885059647268</c:v>
+                  <c:v>6.3024425569112599E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.118201392237565</c:v>
+                  <c:v>6.9292665841798398E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.118420939426693</c:v>
+                  <c:v>7.0357630448664096E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.119519327032203</c:v>
+                  <c:v>6.6255874650755997E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.119057183437072</c:v>
+                  <c:v>6.3162983644327195E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.11828230818657599</c:v>
+                  <c:v>6.9415962391780203E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.118238399302124</c:v>
+                  <c:v>6.9600247880148097E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.119153171933959</c:v>
+                  <c:v>6.3515201130887405E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.117582079483082</c:v>
+                  <c:v>6.2026542034679097E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.118953231165791</c:v>
+                  <c:v>6.6251542803540397E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.118318444295093</c:v>
+                  <c:v>6.6200241628065898E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.120898021416578</c:v>
+                  <c:v>6.3027689580907695E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3443,11 +3413,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556420480"/>
-        <c:axId val="557721280"/>
+        <c:axId val="554766848"/>
+        <c:axId val="554767424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556420480"/>
+        <c:axId val="554766848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3478,12 +3448,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="557721280"/>
+        <c:crossAx val="554767424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="557721280"/>
+        <c:axId val="554767424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3515,7 +3485,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="556420480"/>
+        <c:crossAx val="554766848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3579,9 +3549,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>zbiór treningowy</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -3854,9 +3821,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>zbiór walidacyjny</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln>
               <a:noFill/>
@@ -4134,11 +4098,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="697060736"/>
-        <c:axId val="697061312"/>
+        <c:axId val="554769728"/>
+        <c:axId val="554983424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="697060736"/>
+        <c:axId val="554769728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4169,12 +4133,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="697061312"/>
+        <c:crossAx val="554983424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="697061312"/>
+        <c:axId val="554983424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4206,7 +4170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="697060736"/>
+        <c:crossAx val="554769728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4270,9 +4234,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>zbiór treningowy</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -4545,9 +4506,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>zbiór walidacyjny</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln>
               <a:noFill/>
@@ -4825,11 +4783,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="696072384"/>
-        <c:axId val="696071808"/>
+        <c:axId val="554985728"/>
+        <c:axId val="554986304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="696072384"/>
+        <c:axId val="554985728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4860,12 +4818,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="696071808"/>
+        <c:crossAx val="554986304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="696071808"/>
+        <c:axId val="554986304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4897,7 +4855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="696072384"/>
+        <c:crossAx val="554985728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4961,9 +4919,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>zbiór treningowy</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -5236,9 +5191,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>zbiór walidacyjny</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln>
               <a:noFill/>
@@ -5516,11 +5468,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="697063616"/>
-        <c:axId val="697063040"/>
+        <c:axId val="554988608"/>
+        <c:axId val="554989184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="697063616"/>
+        <c:axId val="554988608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5551,12 +5503,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="697063040"/>
+        <c:crossAx val="554989184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="697063040"/>
+        <c:axId val="554989184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5588,7 +5540,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="697063616"/>
+        <c:crossAx val="554988608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5652,9 +5604,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>zbiór treningowy</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -5927,9 +5876,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>zbiór walidacyjny</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln>
               <a:noFill/>
@@ -6207,11 +6153,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="697062464"/>
-        <c:axId val="697155584"/>
+        <c:axId val="555565056"/>
+        <c:axId val="555565632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="697062464"/>
+        <c:axId val="555565056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6242,12 +6188,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="697155584"/>
+        <c:crossAx val="555565632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="697155584"/>
+        <c:axId val="555565632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6279,7 +6225,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="697062464"/>
+        <c:crossAx val="555565056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7031,7 +6977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
@@ -8928,13 +8874,15 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5" customWidth="1"/>
+    <col min="20" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8953,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.204268168084631</v>
+        <v>0.22821911607227399</v>
       </c>
       <c r="C2">
-        <v>0.17384338214652101</v>
+        <v>0.22458928136366901</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -8964,10 +8912,10 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>9.8398917242088602E-2</v>
+        <v>0.13580770082973401</v>
       </c>
       <c r="C3">
-        <v>9.5337337559677604E-2</v>
+        <v>0.16149330886008501</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -8975,10 +8923,10 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>9.0570906014976804E-2</v>
+        <v>0.12944822926581301</v>
       </c>
       <c r="C4">
-        <v>8.6622985194712093E-2</v>
+        <v>0.161130534752396</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -8986,10 +8934,10 @@
         <v>300</v>
       </c>
       <c r="B5">
-        <v>8.5450693239853506E-2</v>
+        <v>0.11094832287359099</v>
       </c>
       <c r="C5">
-        <v>8.5671468695665803E-2</v>
+        <v>0.14736443915547101</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -8997,10 +8945,10 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <v>8.6902487758656E-2</v>
+        <v>9.2250235501406305E-2</v>
       </c>
       <c r="C6">
-        <v>8.4429389555196493E-2</v>
+        <v>0.11965813797991599</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -9008,10 +8956,10 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <v>8.4846549700710899E-2</v>
+        <v>7.56888376725635E-2</v>
       </c>
       <c r="C7">
-        <v>8.0876423058894795E-2</v>
+        <v>7.8205579819075693E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -9019,10 +8967,10 @@
         <v>600</v>
       </c>
       <c r="B8">
-        <v>8.4035430455506405E-2</v>
+        <v>7.3799475296737499E-2</v>
       </c>
       <c r="C8">
-        <v>8.0041610115372003E-2</v>
+        <v>7.2743547711966797E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -9030,10 +8978,10 @@
         <v>700</v>
       </c>
       <c r="B9">
-        <v>8.3460261990466203E-2</v>
+        <v>7.2643352280026399E-2</v>
       </c>
       <c r="C9">
-        <v>8.1654604258848296E-2</v>
+        <v>7.3256712305289698E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -9041,10 +8989,10 @@
         <v>800</v>
       </c>
       <c r="B10">
-        <v>8.3250044012168803E-2</v>
+        <v>7.1728497866598795E-2</v>
       </c>
       <c r="C10">
-        <v>8.3007520959407999E-2</v>
+        <v>7.2956786397808199E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -9052,10 +9000,10 @@
         <v>900</v>
       </c>
       <c r="B11">
-        <v>8.4119723248040998E-2</v>
+        <v>7.0605575445656002E-2</v>
       </c>
       <c r="C11">
-        <v>8.0890546750463796E-2</v>
+        <v>7.1010765120954902E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -9063,10 +9011,10 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>8.2230311553164306E-2</v>
+        <v>7.0112174351225395E-2</v>
       </c>
       <c r="C12">
-        <v>8.3387961301878394E-2</v>
+        <v>7.0232752872374599E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -9074,10 +9022,10 @@
         <v>1100</v>
       </c>
       <c r="B13">
-        <v>8.2386814725507296E-2</v>
+        <v>6.9622543275471599E-2</v>
       </c>
       <c r="C13">
-        <v>8.4535717676728003E-2</v>
+        <v>6.9834347290627902E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -9085,10 +9033,10 @@
         <v>1200</v>
       </c>
       <c r="B14">
-        <v>8.1094399500478198E-2</v>
+        <v>6.9388334617776701E-2</v>
       </c>
       <c r="C14">
-        <v>8.2429324042045393E-2</v>
+        <v>6.8497088288718699E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -9096,10 +9044,10 @@
         <v>1300</v>
       </c>
       <c r="B15">
-        <v>8.2316458913577695E-2</v>
+        <v>6.7306881432754206E-2</v>
       </c>
       <c r="C15">
-        <v>7.9973500673042999E-2</v>
+        <v>7.4252671510473794E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -9107,10 +9055,10 @@
         <v>1400</v>
       </c>
       <c r="B16">
-        <v>8.2424800339588405E-2</v>
+        <v>6.7974744994446903E-2</v>
       </c>
       <c r="C16">
-        <v>8.0833176451558394E-2</v>
+        <v>6.4461315653746298E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -9118,10 +9066,10 @@
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>8.2237571979697097E-2</v>
+        <v>6.8190505407139196E-2</v>
       </c>
       <c r="C17">
-        <v>8.5524290551631396E-2</v>
+        <v>6.50836315260679E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -9129,10 +9077,10 @@
         <v>1600</v>
       </c>
       <c r="B18">
-        <v>8.3037967308458499E-2</v>
+        <v>6.7094416431362505E-2</v>
       </c>
       <c r="C18">
-        <v>8.0873782899296795E-2</v>
+        <v>6.3378659696771505E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -9140,10 +9088,10 @@
         <v>1700</v>
       </c>
       <c r="B19">
-        <v>8.0315622962006103E-2</v>
+        <v>6.8054299789963094E-2</v>
       </c>
       <c r="C19">
-        <v>8.14222635844329E-2</v>
+        <v>6.4864028286919506E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -9151,10 +9099,10 @@
         <v>1800</v>
       </c>
       <c r="B20">
-        <v>8.2353848233221699E-2</v>
+        <v>6.7846863091447801E-2</v>
       </c>
       <c r="C20">
-        <v>7.3825203539429701E-2</v>
+        <v>6.8502991653211706E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -9162,10 +9110,10 @@
         <v>1900</v>
       </c>
       <c r="B21">
-        <v>8.9628098698217598E-2</v>
+        <v>6.7533332979366298E-2</v>
       </c>
       <c r="C21">
-        <v>0.12742717012336899</v>
+        <v>6.4087757349053906E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -9173,10 +9121,10 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>0.10926535115208399</v>
+        <v>6.7756185335516597E-2</v>
       </c>
       <c r="C22">
-        <v>0.12086641472175801</v>
+        <v>6.5991067256536695E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -9184,10 +9132,10 @@
         <v>2100</v>
       </c>
       <c r="B23">
-        <v>0.109883327154842</v>
+        <v>6.7857339612714201E-2</v>
       </c>
       <c r="C23">
-        <v>0.121225090932901</v>
+        <v>6.4652800343934794E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -9195,10 +9143,10 @@
         <v>2200</v>
       </c>
       <c r="B24">
-        <v>0.111923906116577</v>
+        <v>6.7723888630226894E-2</v>
       </c>
       <c r="C24">
-        <v>0.11928447239142601</v>
+        <v>6.5253340119807796E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -9206,10 +9154,10 @@
         <v>2300</v>
       </c>
       <c r="B25">
-        <v>0.112403097098818</v>
+        <v>6.7175353181042896E-2</v>
       </c>
       <c r="C25">
-        <v>0.11939776157429299</v>
+        <v>6.8848739225259803E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -9217,10 +9165,10 @@
         <v>2400</v>
       </c>
       <c r="B26">
-        <v>0.112855355229341</v>
+        <v>6.6615042651147205E-2</v>
       </c>
       <c r="C26">
-        <v>0.11770678244408</v>
+        <v>7.0780946328651895E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -9228,10 +9176,10 @@
         <v>2500</v>
       </c>
       <c r="B27">
-        <v>0.112636840203187</v>
+        <v>6.7627098884120995E-2</v>
       </c>
       <c r="C27">
-        <v>0.118649004952085</v>
+        <v>6.3828133140722804E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -9239,10 +9187,10 @@
         <v>2600</v>
       </c>
       <c r="B28">
-        <v>0.112207362921991</v>
+        <v>6.66904258326E-2</v>
       </c>
       <c r="C28">
-        <v>0.11772675666408799</v>
+        <v>6.1419421442993102E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -9250,10 +9198,10 @@
         <v>2700</v>
       </c>
       <c r="B29">
-        <v>0.11203038163111401</v>
+        <v>7.20675310280562E-2</v>
       </c>
       <c r="C29">
-        <v>0.119044460239715</v>
+        <v>6.7974605800546997E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -9261,10 +9209,10 @@
         <v>2800</v>
       </c>
       <c r="B30">
-        <v>0.109966542649665</v>
+        <v>7.1659716945553495E-2</v>
       </c>
       <c r="C30">
-        <v>0.11885059647268</v>
+        <v>6.3024425569112599E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -9272,10 +9220,10 @@
         <v>2900</v>
       </c>
       <c r="B31">
-        <v>0.10964140822155399</v>
+        <v>7.5576235793360994E-2</v>
       </c>
       <c r="C31">
-        <v>0.118201392237565</v>
+        <v>6.9292665841798398E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -9283,10 +9231,10 @@
         <v>3000</v>
       </c>
       <c r="B32">
-        <v>0.109433522823025</v>
+        <v>7.5236276742591895E-2</v>
       </c>
       <c r="C32">
-        <v>0.118420939426693</v>
+        <v>7.0357630448664096E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -9294,10 +9242,10 @@
         <v>3100</v>
       </c>
       <c r="B33">
-        <v>0.10921466481103299</v>
+        <v>7.5713243804519395E-2</v>
       </c>
       <c r="C33">
-        <v>0.119519327032203</v>
+        <v>6.6255874650755997E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -9305,10 +9253,10 @@
         <v>3200</v>
       </c>
       <c r="B34">
-        <v>0.104210518737285</v>
+        <v>7.5742945785873803E-2</v>
       </c>
       <c r="C34">
-        <v>0.119057183437072</v>
+        <v>6.3162983644327195E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -9316,10 +9264,10 @@
         <v>3300</v>
       </c>
       <c r="B35">
-        <v>0.106392217480145</v>
+        <v>7.4944605352852106E-2</v>
       </c>
       <c r="C35">
-        <v>0.11828230818657599</v>
+        <v>6.9415962391780203E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -9327,10 +9275,10 @@
         <v>3400</v>
       </c>
       <c r="B36">
-        <v>0.103776609488029</v>
+        <v>8.31043416838569E-2</v>
       </c>
       <c r="C36">
-        <v>0.118238399302124</v>
+        <v>6.9600247880148097E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -9338,10 +9286,10 @@
         <v>3500</v>
       </c>
       <c r="B37">
-        <v>0.101481995001252</v>
+        <v>8.3470719972756596E-2</v>
       </c>
       <c r="C37">
-        <v>0.119153171933959</v>
+        <v>6.3515201130887405E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -9349,10 +9297,10 @@
         <v>3600</v>
       </c>
       <c r="B38">
-        <v>0.108291488250393</v>
+        <v>8.2289507768651293E-2</v>
       </c>
       <c r="C38">
-        <v>0.117582079483082</v>
+        <v>6.2026542034679097E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -9360,10 +9308,10 @@
         <v>3700</v>
       </c>
       <c r="B39">
-        <v>0.101202511554754</v>
+        <v>8.7480910251326302E-2</v>
       </c>
       <c r="C39">
-        <v>0.118953231165791</v>
+        <v>6.6251542803540397E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -9371,10 +9319,10 @@
         <v>3800</v>
       </c>
       <c r="B40">
-        <v>0.103676600063298</v>
+        <v>9.1166981958936494E-2</v>
       </c>
       <c r="C40">
-        <v>0.118318444295093</v>
+        <v>6.6200241628065898E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -9382,10 +9330,10 @@
         <v>3900</v>
       </c>
       <c r="B41">
-        <v>9.8666755273026194E-2</v>
+        <v>8.98026978979901E-2</v>
       </c>
       <c r="C41">
-        <v>0.120898021416578</v>
+        <v>6.3027689580907695E-2</v>
       </c>
     </row>
   </sheetData>
@@ -10823,7 +10771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/02/sprawozdanie/dane/b/Book1.xlsx
+++ b/02/sprawozdanie/dane/b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Sheet7" sheetId="15" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="16" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="17" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="18" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="test01" localSheetId="0">Sheet1!$S$2:$U$41</definedName>
@@ -101,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="5">
   <si>
     <t>Column1</t>
   </si>
@@ -765,11 +766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="562644096"/>
-        <c:axId val="562644672"/>
+        <c:axId val="559432832"/>
+        <c:axId val="559433408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="562644096"/>
+        <c:axId val="559432832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,12 +800,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562644672"/>
+        <c:crossAx val="559433408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="562644672"/>
+        <c:axId val="559433408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,13 +836,704 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562644096"/>
+        <c:crossAx val="559432832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="148"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="48"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Nauka sieci z wykorzystaniem cech: 2,4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>błąd nauki</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet10!$A$2:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet10!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.22776147734587601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1975113816572099E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1701446692604098E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1810653804641499E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1751208868990402E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1748316008988001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1447156639091601E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1633808829071399E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.15942758538205E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1578177406019201E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1421596330752898E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1280052189826901E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.14880900339087E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1363629958824699E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1284404970869999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1549859227412101E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1414538273656501E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.16161773169233E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1436339151565599E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1369247651302499E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1460327209803998E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1388606874553601E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1248266826253401E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1452048011348701E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1388365708927898E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1388758502916199E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1469682536649399E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.12059570220164E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.1347413321685198E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1492375102450698E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.13958097269859E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1322736486406799E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.1337655765734698E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1194462739905301E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1264534097543801E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.1363188279884999E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.1324125876881001E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.13757695106765E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.1273040671753202E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.1163296005642099E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>błąd testu</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet10!$A$2:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet10!$C$2:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.221556089881561</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9551544215339902E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1605705838561402E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1413429317742999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3605641668764201E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0109157766133499E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6526864441043501E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>7.1385174600170902E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.15747917928105E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3936716416874299E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3562211134374199E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9208272145271701E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3003198734435101E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4750152107368901E-3</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>9.2418922648458202E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9891036798843202E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.50047593411302E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.31678082071221E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0815010497804601E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7651478464699799E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2533077154367001E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5121856353780101E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.06181633626557E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4422012052941E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4459723922275701E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.52872914089407E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2721248251972999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2245515516444299E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.71659133932084E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.01565076719983E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3921250869563201E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1423110645157899E-3</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00E+00">
+                  <c:v>9.9147610999829002E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.14718104955834E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8311438711551299E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.26932342936025E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.81746155733765E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.94882885320286E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7442984191765099E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.12611541316939E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="559474368"/>
+        <c:axId val="559474944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="559474368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Epoka</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="559474944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="559474944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Błąd kwadratowy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="559474368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1446,11 +2138,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="562646976"/>
-        <c:axId val="562647552"/>
+        <c:axId val="559435712"/>
+        <c:axId val="559436288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="562646976"/>
+        <c:axId val="559435712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,12 +2172,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562647552"/>
+        <c:crossAx val="559436288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="562647552"/>
+        <c:axId val="559436288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,7 +2208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562646976"/>
+        <c:crossAx val="559435712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2127,11 +2819,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="562649856"/>
-        <c:axId val="562650432"/>
+        <c:axId val="559438592"/>
+        <c:axId val="559439168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="562649856"/>
+        <c:axId val="559438592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2161,12 +2853,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562650432"/>
+        <c:crossAx val="559439168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="562650432"/>
+        <c:axId val="559439168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2197,7 +2889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562649856"/>
+        <c:crossAx val="559438592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2808,11 +3500,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="67798720"/>
-        <c:axId val="67799296"/>
+        <c:axId val="560629440"/>
+        <c:axId val="560630016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67798720"/>
+        <c:axId val="560629440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2842,12 +3534,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67799296"/>
+        <c:crossAx val="560630016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67799296"/>
+        <c:axId val="560630016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,7 +3570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67798720"/>
+        <c:crossAx val="560629440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3489,11 +4181,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="67801600"/>
-        <c:axId val="67802176"/>
+        <c:axId val="560632320"/>
+        <c:axId val="560632896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67801600"/>
+        <c:axId val="560632320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3523,12 +4215,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67802176"/>
+        <c:crossAx val="560632896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67802176"/>
+        <c:axId val="560632896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3559,7 +4251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67801600"/>
+        <c:crossAx val="560632320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4170,11 +4862,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="67804480"/>
-        <c:axId val="67739648"/>
+        <c:axId val="560635200"/>
+        <c:axId val="560570368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67804480"/>
+        <c:axId val="560635200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4204,12 +4896,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67739648"/>
+        <c:crossAx val="560570368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67739648"/>
+        <c:axId val="560570368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4240,7 +4932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67804480"/>
+        <c:crossAx val="560635200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4851,11 +5543,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="67741952"/>
-        <c:axId val="67742528"/>
+        <c:axId val="560572672"/>
+        <c:axId val="560573248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67741952"/>
+        <c:axId val="560572672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4885,12 +5577,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67742528"/>
+        <c:crossAx val="560573248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67742528"/>
+        <c:axId val="560573248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4921,7 +5613,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67741952"/>
+        <c:crossAx val="560572672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5532,11 +6224,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="67744832"/>
-        <c:axId val="67745408"/>
+        <c:axId val="560575552"/>
+        <c:axId val="560576128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67744832"/>
+        <c:axId val="560575552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5566,12 +6258,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67745408"/>
+        <c:crossAx val="560576128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67745408"/>
+        <c:axId val="560576128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5602,7 +6294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67744832"/>
+        <c:crossAx val="560575552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5665,9 +6357,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>błąd uczenia</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -5940,9 +6629,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>błąd testowania</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln>
               <a:noFill/>
@@ -6220,11 +6906,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="69451776"/>
-        <c:axId val="69452352"/>
+        <c:axId val="561299456"/>
+        <c:axId val="561300032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69451776"/>
+        <c:axId val="561299456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6255,12 +6941,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69452352"/>
+        <c:crossAx val="561300032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69452352"/>
+        <c:axId val="561300032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6292,7 +6978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69451776"/>
+        <c:crossAx val="561299456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6332,6 +7018,43 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6690,6 +7413,18 @@
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
     <tableColumn id="3" name="Column3" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C41" totalsRowShown="0">
+  <autoFilter ref="A1:C41"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7914,6 +8649,480 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.22776147734587601</v>
+      </c>
+      <c r="C2">
+        <v>0.221556089881561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>2.1975113816572099E-2</v>
+      </c>
+      <c r="C3">
+        <v>1.9551544215339902E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>2.1701446692604098E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.1605705838561402E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>2.1810653804641499E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.1413429317742999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>400</v>
+      </c>
+      <c r="B6">
+        <v>2.1751208868990402E-2</v>
+      </c>
+      <c r="C6">
+        <v>1.3605641668764201E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>2.1748316008988001E-2</v>
+      </c>
+      <c r="C7">
+        <v>2.0109157766133499E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>600</v>
+      </c>
+      <c r="B8">
+        <v>2.1447156639091601E-2</v>
+      </c>
+      <c r="C8">
+        <v>2.6526864441043501E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>700</v>
+      </c>
+      <c r="B9">
+        <v>2.1633808829071399E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7.1385174600170902E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>800</v>
+      </c>
+      <c r="B10">
+        <v>2.15942758538205E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.15747917928105E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>900</v>
+      </c>
+      <c r="B11">
+        <v>2.1578177406019201E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.3936716416874299E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>2.1421596330752898E-2</v>
+      </c>
+      <c r="C12">
+        <v>1.3562211134374199E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1100</v>
+      </c>
+      <c r="B13">
+        <v>2.1280052189826901E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.9208272145271701E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1200</v>
+      </c>
+      <c r="B14">
+        <v>2.14880900339087E-2</v>
+      </c>
+      <c r="C14">
+        <v>1.3003198734435101E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1300</v>
+      </c>
+      <c r="B15">
+        <v>2.1363629958824699E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.4750152107368901E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1400</v>
+      </c>
+      <c r="B16">
+        <v>2.1284404970869999E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9.2418922648458202E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1500</v>
+      </c>
+      <c r="B17">
+        <v>2.1549859227412101E-2</v>
+      </c>
+      <c r="C17">
+        <v>1.9891036798843202E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1600</v>
+      </c>
+      <c r="B18">
+        <v>2.1414538273656501E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.50047593411302E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1700</v>
+      </c>
+      <c r="B19">
+        <v>2.16161773169233E-2</v>
+      </c>
+      <c r="C19">
+        <v>1.31678082071221E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1800</v>
+      </c>
+      <c r="B20">
+        <v>2.1436339151565599E-2</v>
+      </c>
+      <c r="C20">
+        <v>2.0815010497804601E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1900</v>
+      </c>
+      <c r="B21">
+        <v>2.1369247651302499E-2</v>
+      </c>
+      <c r="C21">
+        <v>1.7651478464699799E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>2.1460327209803998E-2</v>
+      </c>
+      <c r="C22">
+        <v>1.2533077154367001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2100</v>
+      </c>
+      <c r="B23">
+        <v>2.1388606874553601E-2</v>
+      </c>
+      <c r="C23">
+        <v>1.5121856353780101E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2200</v>
+      </c>
+      <c r="B24">
+        <v>2.1248266826253401E-2</v>
+      </c>
+      <c r="C24">
+        <v>1.06181633626557E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2300</v>
+      </c>
+      <c r="B25">
+        <v>2.1452048011348701E-2</v>
+      </c>
+      <c r="C25">
+        <v>1.4422012052941E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2400</v>
+      </c>
+      <c r="B26">
+        <v>2.1388365708927898E-2</v>
+      </c>
+      <c r="C26">
+        <v>1.4459723922275701E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2500</v>
+      </c>
+      <c r="B27">
+        <v>2.1388758502916199E-2</v>
+      </c>
+      <c r="C27">
+        <v>1.52872914089407E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2600</v>
+      </c>
+      <c r="B28">
+        <v>2.1469682536649399E-2</v>
+      </c>
+      <c r="C28">
+        <v>1.2721248251972999E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2700</v>
+      </c>
+      <c r="B29">
+        <v>2.12059570220164E-2</v>
+      </c>
+      <c r="C29">
+        <v>1.2245515516444299E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2800</v>
+      </c>
+      <c r="B30">
+        <v>2.1347413321685198E-2</v>
+      </c>
+      <c r="C30">
+        <v>1.71659133932084E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2900</v>
+      </c>
+      <c r="B31">
+        <v>2.1492375102450698E-2</v>
+      </c>
+      <c r="C31">
+        <v>1.01565076719983E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3000</v>
+      </c>
+      <c r="B32">
+        <v>2.13958097269859E-2</v>
+      </c>
+      <c r="C32">
+        <v>1.3921250869563201E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3100</v>
+      </c>
+      <c r="B33">
+        <v>2.1322736486406799E-2</v>
+      </c>
+      <c r="C33">
+        <v>2.1423110645157899E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3200</v>
+      </c>
+      <c r="B34">
+        <v>2.1337655765734698E-2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>9.9147610999829002E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3300</v>
+      </c>
+      <c r="B35">
+        <v>2.1194462739905301E-2</v>
+      </c>
+      <c r="C35">
+        <v>1.14718104955834E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3400</v>
+      </c>
+      <c r="B36">
+        <v>2.1264534097543801E-2</v>
+      </c>
+      <c r="C36">
+        <v>1.8311438711551299E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3500</v>
+      </c>
+      <c r="B37">
+        <v>2.1363188279884999E-2</v>
+      </c>
+      <c r="C37">
+        <v>1.26932342936025E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3600</v>
+      </c>
+      <c r="B38">
+        <v>2.1324125876881001E-2</v>
+      </c>
+      <c r="C38">
+        <v>1.81746155733765E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3700</v>
+      </c>
+      <c r="B39">
+        <v>2.13757695106765E-2</v>
+      </c>
+      <c r="C39">
+        <v>1.94882885320286E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3800</v>
+      </c>
+      <c r="B40">
+        <v>2.1273040671753202E-2</v>
+      </c>
+      <c r="C40">
+        <v>1.7442984191765099E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3900</v>
+      </c>
+      <c r="B41">
+        <v>2.1163296005642099E-2</v>
+      </c>
+      <c r="C41">
+        <v>1.12611541316939E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V41"/>
@@ -13777,7 +14986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
